--- a/database_conti.xlsx
+++ b/database_conti.xlsx
@@ -697,10 +697,8 @@
           <t>Interessi bancari</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>21,5</t>
-        </is>
+      <c r="G8" t="n">
+        <v>21.5</v>
       </c>
     </row>
     <row r="9">

--- a/database_conti.xlsx
+++ b/database_conti.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Dati" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G39"/>
+  <dimension ref="A3:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,112 +433,46 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>Anno</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>Mese</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D3" s="1" t="inlineStr">
         <is>
           <t>Entrate_Uscite</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E3" s="1" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F3" s="1" t="inlineStr">
         <is>
           <t>Voce</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G3" s="1" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Gennaio</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Entrate</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Pensioni</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>fra...</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Gennaio</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Entrate</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Pensioni</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>fra gabri</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>800</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -562,16 +496,16 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>fra giaco</t>
+          <t>fra...</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>700</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -604,7 +538,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -637,7 +571,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -646,7 +580,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>gennaio</t>
+          <t>Gennaio</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -656,21 +590,21 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Congrua</t>
+          <t>Pensioni</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>fra Giacomo</t>
+          <t>fra gabri</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -679,7 +613,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>gennaio</t>
+          <t>Gennaio</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,21 +623,21 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Interessi</t>
+          <t>Pensioni</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Interessi bancari</t>
+          <t>fra giaco</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>21.5</v>
+        <v>700</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -717,26 +651,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Uscite</t>
+          <t>Entrate</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Acquisti_Orto_Animali</t>
+          <t>Congrua</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Attrezzi agricoli manutenzione</t>
+          <t>fra Giacomo</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>23</v>
+        <v>900</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -750,26 +684,26 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Uscite</t>
+          <t>Entrate</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Acquisti_Convento</t>
+          <t>Interessi</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Materiale elettrico</t>
+          <t>Interessi bancari</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>45</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -778,7 +712,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>giugno</t>
+          <t>gennaio</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -788,21 +722,21 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Ferie_Viaggi</t>
+          <t>Acquisti_Orto_Animali</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Carburante</t>
+          <t>Attrezzi agricoli manutenzione</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>49</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -821,21 +755,21 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Acquisti_Chiesa</t>
+          <t>Acquisti_Convento</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Fiori</t>
+          <t>Materiale elettrico</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -844,7 +778,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>gennaio</t>
+          <t>giugno</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -854,21 +788,21 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Acquisti_Convento</t>
+          <t>Ferie_Viaggi</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Ferramenta</t>
+          <t>Carburante</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>23</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -887,21 +821,21 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Acquisti_Convento</t>
+          <t>Acquisti_Chiesa</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Ferramenta</t>
+          <t>Fiori</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>23</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -920,21 +854,21 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Acquisti_Orto_Animali</t>
+          <t>Acquisti_Convento</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Attrezzi agricoli manutenzione</t>
+          <t>Ferramenta</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>67</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -943,7 +877,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>aprile</t>
+          <t>gennaio</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -953,12 +887,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Cultura</t>
+          <t>Acquisti_Convento</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ritiro spirituale</t>
+          <t>Ferramenta</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -967,7 +901,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -976,7 +910,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>marzo</t>
+          <t>gennaio</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -995,12 +929,12 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1009,7 +943,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>marzo</t>
+          <t>aprile</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1019,21 +953,21 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Acquisti_Convento</t>
+          <t>Cultura</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Ferramenta</t>
+          <t>Ritiro spirituale</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>55</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1042,7 +976,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>gennaio</t>
+          <t>marzo</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1052,21 +986,21 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Ferie_Viaggi</t>
+          <t>Acquisti_Orto_Animali</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Carburante</t>
+          <t>Attrezzi agricoli manutenzione</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1075,7 +1009,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>gennaio</t>
+          <t>marzo</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1085,21 +1019,21 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Acquisti_Orto_Animali</t>
+          <t>Acquisti_Convento</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Fitofarmaci</t>
+          <t>Ferramenta</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>76</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1113,26 +1047,26 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Entrate</t>
+          <t>Uscite</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Collette_Chiesa</t>
+          <t>Ferie_Viaggi</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Cestino</t>
+          <t>Carburante</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1146,26 +1080,26 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Entrate</t>
+          <t>Uscite</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Congrua</t>
+          <t>Acquisti_Orto_Animali</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>fra Giacomo</t>
+          <t>Fitofarmaci</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>-350</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1184,21 +1118,21 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Offerte</t>
+          <t>Collette_Chiesa</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Eccedenza_Messe</t>
+          <t>Cestino</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>246</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1212,30 +1146,30 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Uscite</t>
+          <t>Entrate</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Curia_provinciale</t>
+          <t>Congrua</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Curia_provinciale</t>
+          <t>fra Giacomo</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1000</v>
+        <v>-350</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1245,26 +1179,26 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Uscite</t>
+          <t>Entrate</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Cultura</t>
+          <t>Offerte</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Abbonamenti</t>
+          <t>Eccedenza_Messe</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>34</v>
+        <v>246</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1273,7 +1207,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>febbraio</t>
+          <t>gennaio</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1283,25 +1217,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Acquisti_Convento</t>
+          <t>Curia_provinciale</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Materiale elettrico</t>
+          <t>Curia_provinciale</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>63.9</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1311,26 +1245,26 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Entrate</t>
+          <t>Uscite</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Interessi</t>
+          <t>Cultura</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Interessi bancari</t>
+          <t>Abbonamenti</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>-36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1339,7 +1273,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>gennaio</t>
+          <t>febbraio</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1354,20 +1288,20 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Ferramenta</t>
+          <t>Materiale elettrico</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>369</v>
+        <v>63.9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1377,12 +1311,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Uscite</t>
+          <t>Entrate</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Acquisti_Chiesa</t>
+          <t>Interessi</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1391,21 +1325,21 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>12.8</v>
+        <v>-36</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>marzo</t>
+          <t>gennaio</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1420,16 +1354,16 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Materiale elettrico</t>
+          <t>Ferramenta</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>39</v>
+        <v>369</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1443,35 +1377,35 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Entrate</t>
+          <t>Uscite</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Congrua</t>
+          <t>Acquisti_Chiesa</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>fra Giacomo</t>
+          <t>Interessi bancari</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>36</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>aprile</t>
+          <t>marzo</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1481,21 +1415,21 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Cultura</t>
+          <t>Acquisti_Convento</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Abbonamenti</t>
+          <t>Materiale elettrico</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1504,7 +1438,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>aprile</t>
+          <t>gennaio</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1514,21 +1448,21 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Collette_Chiesa</t>
+          <t>Congrua</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Cassette</t>
+          <t>fra Giacomo</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1537,7 +1471,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>gennaio</t>
+          <t>aprile</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1547,30 +1481,30 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Ferie_Viaggi</t>
+          <t>Cultura</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Autostrada-Parcheggio</t>
+          <t>Abbonamenti</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.85</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>luglio</t>
+          <t>aprile</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1580,21 +1514,21 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Servizi_religiosi</t>
+          <t>Collette_Chiesa</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Predicazione</t>
+          <t>Cassette</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>589</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1603,7 +1537,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>febbraio</t>
+          <t>gennaio</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1613,54 +1547,54 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Acquisti_Convento</t>
+          <t>Ferie_Viaggi</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Computer</t>
+          <t>Autostrada-Parcheggio</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>445</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>gennaio</t>
+          <t>luglio</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Uscite</t>
+          <t>Entrate</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Acquisti_Orto_Animali</t>
+          <t>Servizi_religiosi</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Fitofarmaci</t>
+          <t>Predicazione</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>36</v>
+        <v>589</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1669,7 +1603,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>gennaio</t>
+          <t>febbraio</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1684,43 +1618,109 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Materiale elettrico</t>
+          <t>Computer</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>360</v>
+        <v>445</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>gennaio</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Uscite</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Acquisti_Orto_Animali</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Fitofarmaci</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>gennaio</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Uscite</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Acquisti_Convento</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Materiale elettrico</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>gennaio</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Uscite</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>gennaio</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Uscite</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
         <is>
           <t>Acquisti_Orto_Animali</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>Attrezzi agricoli manutenzione</t>
         </is>
       </c>
-      <c r="G39" t="n">
+      <c r="G41" t="n">
         <v>36.8</v>
       </c>
     </row>

--- a/database_conti.xlsx
+++ b/database_conti.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Dati" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A3:G41"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,46 +433,112 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Anno</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Mese</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Entrate_Uscite</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Voce</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Gennaio</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Entrate</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Pensioni</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>fra...</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>1001</v>
+      </c>
+    </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>Anno</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>Mese</t>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
-        <is>
-          <t>Entrate_Uscite</t>
-        </is>
-      </c>
-      <c r="E3" s="1" t="inlineStr">
-        <is>
-          <t>Categoria</t>
-        </is>
-      </c>
-      <c r="F3" s="1" t="inlineStr">
-        <is>
-          <t>Voce</t>
-        </is>
-      </c>
-      <c r="G3" s="1" t="inlineStr">
-        <is>
-          <t>Euro</t>
-        </is>
+      <c r="A3" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Gennaio</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Entrate</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Pensioni</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>fra gabri</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>800</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -496,16 +562,16 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>fra...</t>
+          <t>fra giaco</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1001</v>
+        <v>700</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -538,7 +604,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -571,7 +637,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -580,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Gennaio</t>
+          <t>gennaio</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -590,21 +656,21 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Pensioni</t>
+          <t>Congrua</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>fra gabri</t>
+          <t>fra Giacomo</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -613,7 +679,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Gennaio</t>
+          <t>gennaio</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -623,21 +689,21 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Pensioni</t>
+          <t>Interessi</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>fra giaco</t>
+          <t>Interessi bancari</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>700</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -651,26 +717,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Entrate</t>
+          <t>Uscite</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Congrua</t>
+          <t>Acquisti_Orto_Animali</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>fra Giacomo</t>
+          <t>Attrezzi agricoli manutenzione</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>900</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -684,26 +750,26 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Entrate</t>
+          <t>Uscite</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Interessi</t>
+          <t>Acquisti_Convento</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Interessi bancari</t>
+          <t>Materiale elettrico</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>21.5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -712,7 +778,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>gennaio</t>
+          <t>giugno</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -722,21 +788,21 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Acquisti_Orto_Animali</t>
+          <t>Ferie_Viaggi</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Attrezzi agricoli manutenzione</t>
+          <t>Carburante</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>23</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -755,21 +821,21 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Acquisti_Convento</t>
+          <t>Acquisti_Chiesa</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Materiale elettrico</t>
+          <t>Fiori</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -778,7 +844,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>giugno</t>
+          <t>gennaio</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -788,21 +854,21 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Ferie_Viaggi</t>
+          <t>Acquisti_Convento</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Carburante</t>
+          <t>Ferramenta</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>49</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -821,21 +887,21 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Acquisti_Chiesa</t>
+          <t>Acquisti_Convento</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Fiori</t>
+          <t>Ferramenta</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>50</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -854,21 +920,21 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Acquisti_Convento</t>
+          <t>Acquisti_Orto_Animali</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Ferramenta</t>
+          <t>Attrezzi agricoli manutenzione</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>23</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -877,7 +943,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>gennaio</t>
+          <t>aprile</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -887,12 +953,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Acquisti_Convento</t>
+          <t>Cultura</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ferramenta</t>
+          <t>Ritiro spirituale</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -901,7 +967,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -910,7 +976,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>gennaio</t>
+          <t>marzo</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -929,12 +995,12 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -943,7 +1009,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>aprile</t>
+          <t>marzo</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -953,21 +1019,21 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Cultura</t>
+          <t>Acquisti_Convento</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Ritiro spirituale</t>
+          <t>Ferramenta</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>23</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -976,7 +1042,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>marzo</t>
+          <t>gennaio</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -986,21 +1052,21 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Acquisti_Orto_Animali</t>
+          <t>Ferie_Viaggi</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Attrezzi agricoli manutenzione</t>
+          <t>Carburante</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1009,7 +1075,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>marzo</t>
+          <t>gennaio</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1019,21 +1085,21 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Acquisti_Convento</t>
+          <t>Acquisti_Orto_Animali</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Ferramenta</t>
+          <t>Fitofarmaci</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>55</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1047,26 +1113,26 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Uscite</t>
+          <t>Entrate</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Ferie_Viaggi</t>
+          <t>Collette_Chiesa</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Carburante</t>
+          <t>Cestino</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1080,26 +1146,26 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Uscite</t>
+          <t>Entrate</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Acquisti_Orto_Animali</t>
+          <t>Congrua</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Fitofarmaci</t>
+          <t>fra Giacomo</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>76</v>
+        <v>-350</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1118,21 +1184,21 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Collette_Chiesa</t>
+          <t>Offerte</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Cestino</t>
+          <t>Eccedenza_Messe</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>34</v>
+        <v>246</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1146,30 +1212,30 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Entrate</t>
+          <t>Uscite</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Congrua</t>
+          <t>Curia_provinciale</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>fra Giacomo</t>
+          <t>Curia_provinciale</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>-350</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1179,26 +1245,26 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Entrate</t>
+          <t>Uscite</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Offerte</t>
+          <t>Cultura</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Eccedenza_Messe</t>
+          <t>Abbonamenti</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>246</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1207,7 +1273,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>gennaio</t>
+          <t>febbraio</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1217,25 +1283,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Curia_provinciale</t>
+          <t>Acquisti_Convento</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Curia_provinciale</t>
+          <t>Materiale elettrico</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1000</v>
+        <v>63.9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1245,26 +1311,26 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Uscite</t>
+          <t>Entrate</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Cultura</t>
+          <t>Interessi</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Abbonamenti</t>
+          <t>Interessi bancari</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>34</v>
+        <v>-36</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1273,7 +1339,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>febbraio</t>
+          <t>gennaio</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1288,20 +1354,20 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Materiale elettrico</t>
+          <t>Ferramenta</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>63.9</v>
+        <v>369</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1311,12 +1377,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Entrate</t>
+          <t>Uscite</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Interessi</t>
+          <t>Acquisti_Chiesa</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1325,21 +1391,21 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>-36</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>gennaio</t>
+          <t>marzo</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1354,16 +1420,16 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Ferramenta</t>
+          <t>Materiale elettrico</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>369</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1377,35 +1443,35 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Uscite</t>
+          <t>Entrate</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Acquisti_Chiesa</t>
+          <t>Congrua</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Interessi bancari</t>
+          <t>fra Giacomo</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>12.8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>marzo</t>
+          <t>aprile</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1415,21 +1481,21 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Acquisti_Convento</t>
+          <t>Cultura</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Materiale elettrico</t>
+          <t>Abbonamenti</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1438,7 +1504,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>gennaio</t>
+          <t>aprile</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1448,21 +1514,21 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Congrua</t>
+          <t>Collette_Chiesa</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>fra Giacomo</t>
+          <t>Cassette</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1471,7 +1537,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>aprile</t>
+          <t>gennaio</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1481,30 +1547,30 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Cultura</t>
+          <t>Ferie_Viaggi</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Abbonamenti</t>
+          <t>Autostrada-Parcheggio</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>24</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>aprile</t>
+          <t>luglio</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1514,21 +1580,21 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Collette_Chiesa</t>
+          <t>Servizi_religiosi</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Cassette</t>
+          <t>Predicazione</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>23</v>
+        <v>589</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1537,7 +1603,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>gennaio</t>
+          <t>febbraio</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1547,54 +1613,54 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Ferie_Viaggi</t>
+          <t>Acquisti_Convento</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Autostrada-Parcheggio</t>
+          <t>Computer</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.85</v>
+        <v>445</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>luglio</t>
+          <t>gennaio</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Entrate</t>
+          <t>Uscite</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Servizi_religiosi</t>
+          <t>Acquisti_Orto_Animali</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Predicazione</t>
+          <t>Fitofarmaci</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>589</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1603,7 +1669,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>febbraio</t>
+          <t>gennaio</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1618,16 +1684,16 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Computer</t>
+          <t>Materiale elettrico</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>445</v>
+        <v>360</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1651,76 +1717,10 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Fitofarmaci</t>
+          <t>Attrezzi agricoli manutenzione</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>gennaio</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Uscite</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Acquisti_Convento</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Materiale elettrico</t>
-        </is>
-      </c>
-      <c r="G40" t="n">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>gennaio</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Uscite</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Acquisti_Orto_Animali</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Attrezzi agricoli manutenzione</t>
-        </is>
-      </c>
-      <c r="G41" t="n">
         <v>36.8</v>
       </c>
     </row>

--- a/database_conti.xlsx
+++ b/database_conti.xlsx
@@ -31150,7 +31150,7 @@
         <v>72</v>
       </c>
       <c r="G1315">
-        <v>50</v>
+        <v>50.2</v>
       </c>
     </row>
     <row r="1316" spans="1:7">

--- a/database_conti.xlsx
+++ b/database_conti.xlsx
@@ -31196,7 +31196,7 @@
         <v>115</v>
       </c>
       <c r="G1317">
-        <v>180</v>
+        <v>180.1</v>
       </c>
     </row>
     <row r="1318" spans="1:7">
@@ -31288,7 +31288,7 @@
         <v>50</v>
       </c>
       <c r="G1321">
-        <v>25</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="1322" spans="1:7">

--- a/database_conti.xlsx
+++ b/database_conti.xlsx
@@ -31196,7 +31196,7 @@
         <v>115</v>
       </c>
       <c r="G1317">
-        <v>180</v>
+        <v>180.1</v>
       </c>
     </row>
     <row r="1318" spans="1:7">

--- a/database_conti.xlsx
+++ b/database_conti.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5303" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5307" uniqueCount="179">
   <si>
     <t>index</t>
   </si>
@@ -908,7 +908,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1325"/>
+  <dimension ref="A1:G1326"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31389,6 +31389,29 @@
         <v>700</v>
       </c>
     </row>
+    <row r="1326" spans="1:7">
+      <c r="A1326">
+        <v>1325</v>
+      </c>
+      <c r="B1326">
+        <v>2022</v>
+      </c>
+      <c r="C1326" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1326" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1326" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1326" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1326">
+        <v>3.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
